--- a/포켓몬스터 골드 프로젝트 자료/일정표.xlsx
+++ b/포켓몬스터 골드 프로젝트 자료/일정표.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbtjr\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\장규석\Desktop\Pokemon-Gold\포켓몬스터 골드 프로젝트 자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748EB969-AA7C-489A-8212-873B986C2A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5F0E46-9492-48C8-8171-EC60E3378492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{512BACF0-F458-41B6-9394-C0894F31B94C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{512BACF0-F458-41B6-9394-C0894F31B94C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>개발 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,6 +69,54 @@
   </si>
   <si>
     <t>개발 툴 맵 편집 &amp; 데이터 저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사운드 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵 데이터 로드, NPC 배치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 데이터 생성, NPC 별 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 이동, 상호작용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어의 맵과 맵 사이의 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본UI 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 데이터 구성, 인벤토리 기능, UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점 시스템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포켓몬 데이터 구성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투 시스템 구성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디버깅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발문서 작성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -93,7 +141,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -136,8 +184,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -234,13 +306,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -259,37 +351,82 @@
     <xf numFmtId="58" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -611,56 +748,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{161D8DA8-CF88-403D-8D5D-00FBF232B1A0}">
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="33.375" customWidth="1"/>
-    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.3984375" customWidth="1"/>
+    <col min="2" max="2" width="9.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="8" t="s">
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="8" t="s">
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="11" t="s">
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="13">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A2" s="16"/>
+      <c r="B2" s="8">
         <v>44404</v>
       </c>
       <c r="C2" s="5">
@@ -727,43 +864,437 @@
         <v>44425</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="29"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="30"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="14"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="30"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="30"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="30"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="30"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A9" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="30"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A10" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="30"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A11" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="30"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A12" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="30"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A13" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="30"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A14" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="30"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A15" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="30"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A16" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="30"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A17" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="30"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A18" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="27"/>
+      <c r="V18" s="28"/>
+      <c r="W18" s="31"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2">

--- a/포켓몬스터 골드 프로젝트 자료/일정표.xlsx
+++ b/포켓몬스터 골드 프로젝트 자료/일정표.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\장규석\Desktop\Pokemon-Gold\포켓몬스터 골드 프로젝트 자료\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbtjr\Desktop\Pokemon-Gold\포켓몬스터 골드 프로젝트 자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5F0E46-9492-48C8-8171-EC60E3378492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A24B4F-BC8C-443E-B32D-9DD7272EC501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{512BACF0-F458-41B6-9394-C0894F31B94C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{512BACF0-F458-41B6-9394-C0894F31B94C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,10 +56,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>발표</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>각종 데이터 구조 정의</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -88,10 +84,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>플레이어의 맵과 맵 사이의 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기본UI 제작</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -117,6 +109,14 @@
   </si>
   <si>
     <t>개발문서 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">포켓몬 데이터 편집 툴 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각종 화면 이펙트 구성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -332,28 +332,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -369,6 +360,51 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -383,51 +419,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -748,562 +739,437 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{161D8DA8-CF88-403D-8D5D-00FBF232B1A0}">
-  <dimension ref="A1:W18"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.3984375" customWidth="1"/>
-    <col min="2" max="2" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.375" customWidth="1"/>
+    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="12" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="12" t="s">
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="6" t="s">
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="26"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="28"/>
+      <c r="B2" s="5">
+        <v>44404</v>
+      </c>
+      <c r="C2" s="3">
+        <v>44405</v>
+      </c>
+      <c r="D2" s="3">
+        <v>44406</v>
+      </c>
+      <c r="E2" s="3">
+        <v>44407</v>
+      </c>
+      <c r="F2" s="3">
+        <v>44408</v>
+      </c>
+      <c r="G2" s="3">
+        <v>44409</v>
+      </c>
+      <c r="H2" s="3">
+        <v>44410</v>
+      </c>
+      <c r="I2" s="3">
+        <v>44411</v>
+      </c>
+      <c r="J2" s="3">
+        <v>44412</v>
+      </c>
+      <c r="K2" s="3">
+        <v>44413</v>
+      </c>
+      <c r="L2" s="3">
+        <v>44414</v>
+      </c>
+      <c r="M2" s="3">
+        <v>44415</v>
+      </c>
+      <c r="N2" s="3">
+        <v>44416</v>
+      </c>
+      <c r="O2" s="3">
+        <v>44417</v>
+      </c>
+      <c r="P2" s="3">
+        <v>44418</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>44419</v>
+      </c>
+      <c r="R2" s="3">
+        <v>44420</v>
+      </c>
+      <c r="S2" s="1">
+        <v>44421</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="20"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A2" s="16"/>
-      <c r="B2" s="8">
-        <v>44404</v>
-      </c>
-      <c r="C2" s="5">
-        <v>44405</v>
-      </c>
-      <c r="D2" s="5">
-        <v>44406</v>
-      </c>
-      <c r="E2" s="5">
-        <v>44407</v>
-      </c>
-      <c r="F2" s="5">
-        <v>44408</v>
-      </c>
-      <c r="G2" s="5">
-        <v>44409</v>
-      </c>
-      <c r="H2" s="5">
-        <v>44410</v>
-      </c>
-      <c r="I2" s="5">
-        <v>44411</v>
-      </c>
-      <c r="J2" s="5">
-        <v>44412</v>
-      </c>
-      <c r="K2" s="5">
-        <v>44413</v>
-      </c>
-      <c r="L2" s="5">
-        <v>44414</v>
-      </c>
-      <c r="M2" s="5">
-        <v>44415</v>
-      </c>
-      <c r="N2" s="5">
-        <v>44416</v>
-      </c>
-      <c r="O2" s="5">
-        <v>44417</v>
-      </c>
-      <c r="P2" s="5">
-        <v>44418</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>44419</v>
-      </c>
-      <c r="R2" s="5">
-        <v>44420</v>
-      </c>
-      <c r="S2" s="5">
-        <v>44421</v>
-      </c>
-      <c r="T2" s="5">
-        <v>44422</v>
-      </c>
-      <c r="U2" s="5">
-        <v>44423</v>
-      </c>
-      <c r="V2" s="5">
-        <v>44424</v>
-      </c>
-      <c r="W2" s="1">
-        <v>44425</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="29"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="23"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="21"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="30"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A5" s="9" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="6"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="21"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="30"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A6" s="9" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="6"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="21"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="21"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="21"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="21"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="9"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="21"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="11"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="21"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="9"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="21"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="12"/>
+      <c r="S13" s="21"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="21"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="14"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="S15" s="21"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16" s="12"/>
+      <c r="S16" s="21"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="30"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="30"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="30"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A9" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="26"/>
-      <c r="W9" s="30"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A10" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="26"/>
-      <c r="W10" s="30"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A11" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
-      <c r="W11" s="30"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A12" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="26"/>
-      <c r="W12" s="30"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A13" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="26"/>
-      <c r="W13" s="30"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A14" s="20" t="s">
+      <c r="P17" s="13"/>
+      <c r="Q17" s="14"/>
+      <c r="S17" s="21"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="26"/>
-      <c r="W14" s="30"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A15" s="20" t="s">
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="21"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="26"/>
-      <c r="W15" s="30"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A16" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="26"/>
-      <c r="W16" s="30"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A17" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="26"/>
-      <c r="W17" s="30"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A18" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="27"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="27"/>
-      <c r="U18" s="27"/>
-      <c r="V18" s="28"/>
-      <c r="W18" s="31"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="22"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2">
     <sortCondition ref="B2"/>
   </sortState>
   <mergeCells count="4">
+    <mergeCell ref="P1:S1"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="I1:O1"/>
-    <mergeCell ref="P1:V1"/>
     <mergeCell ref="A1:A2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/포켓몬스터 골드 프로젝트 자료/일정표.xlsx
+++ b/포켓몬스터 골드 프로젝트 자료/일정표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbtjr\Desktop\Pokemon-Gold\포켓몬스터 골드 프로젝트 자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A24B4F-BC8C-443E-B32D-9DD7272EC501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA52DE4B-B137-4436-A48D-974FC1E8B1AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{512BACF0-F458-41B6-9394-C0894F31B94C}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{512BACF0-F458-41B6-9394-C0894F31B94C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>개발 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,6 +117,10 @@
   </si>
   <si>
     <t>각종 화면 이펙트 구성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵 데이터 로드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -332,7 +336,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -404,6 +408,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -739,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{161D8DA8-CF88-403D-8D5D-00FBF232B1A0}">
-  <dimension ref="A1:S19"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -752,36 +762,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="24" t="s">
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="24" t="s">
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="26"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="28"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="28"/>
+      <c r="A2" s="30"/>
       <c r="B2" s="5">
         <v>44404</v>
       </c>
@@ -1162,11 +1172,130 @@
       <c r="R19" s="17"/>
       <c r="S19" s="22"/>
     </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="28"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="25"/>
+      <c r="B22" s="5">
+        <v>44404</v>
+      </c>
+      <c r="C22" s="3">
+        <v>44405</v>
+      </c>
+      <c r="D22" s="3">
+        <v>44406</v>
+      </c>
+      <c r="E22" s="3">
+        <v>44407</v>
+      </c>
+      <c r="F22" s="3">
+        <v>44408</v>
+      </c>
+      <c r="G22" s="3">
+        <v>44409</v>
+      </c>
+      <c r="H22" s="3">
+        <v>44410</v>
+      </c>
+      <c r="I22" s="3">
+        <v>44411</v>
+      </c>
+      <c r="J22" s="3">
+        <v>44412</v>
+      </c>
+      <c r="K22" s="3">
+        <v>44413</v>
+      </c>
+      <c r="L22" s="3">
+        <v>44414</v>
+      </c>
+      <c r="M22" s="3">
+        <v>44415</v>
+      </c>
+      <c r="N22" s="3">
+        <v>44416</v>
+      </c>
+      <c r="O22" s="3">
+        <v>44417</v>
+      </c>
+      <c r="P22" s="3">
+        <v>44418</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>44419</v>
+      </c>
+      <c r="R22" s="3">
+        <v>44420</v>
+      </c>
+      <c r="S22" s="1">
+        <v>44421</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="23"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="6"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="6"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="6"/>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2">
     <sortCondition ref="B2"/>
   </sortState>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="I21:O21"/>
+    <mergeCell ref="P21:S21"/>
     <mergeCell ref="P1:S1"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="I1:O1"/>

--- a/포켓몬스터 골드 프로젝트 자료/일정표.xlsx
+++ b/포켓몬스터 골드 프로젝트 자료/일정표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbtjr\Desktop\Pokemon-Gold\포켓몬스터 골드 프로젝트 자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA52DE4B-B137-4436-A48D-974FC1E8B1AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4B1EAA-BB6A-46AA-A25E-E149D80A1884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{512BACF0-F458-41B6-9394-C0894F31B94C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{512BACF0-F458-41B6-9394-C0894F31B94C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -336,7 +336,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -408,12 +408,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -751,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{161D8DA8-CF88-403D-8D5D-00FBF232B1A0}">
   <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -762,36 +756,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="26" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="26" t="s">
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="28"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="26"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="30"/>
+      <c r="A2" s="28"/>
       <c r="B2" s="5">
         <v>44404</v>
       </c>
@@ -1173,36 +1167,36 @@
       <c r="S19" s="22"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="26" t="s">
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="26" t="s">
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="28"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="26"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="25"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="5">
         <v>44404</v>
       </c>
@@ -1292,14 +1286,15 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2">
     <sortCondition ref="B2"/>
   </sortState>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:H21"/>
     <mergeCell ref="I21:O21"/>
     <mergeCell ref="P21:S21"/>
     <mergeCell ref="P1:S1"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="I1:O1"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/포켓몬스터 골드 프로젝트 자료/일정표.xlsx
+++ b/포켓몬스터 골드 프로젝트 자료/일정표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbtjr\Desktop\Pokemon-Gold\포켓몬스터 골드 프로젝트 자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4B1EAA-BB6A-46AA-A25E-E149D80A1884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88E06DC-5A66-4D2A-8BE0-2DABD9467292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{512BACF0-F458-41B6-9394-C0894F31B94C}"/>
   </bookViews>
@@ -213,7 +213,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -330,13 +330,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -423,6 +434,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -746,7 +763,7 @@
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1274,13 +1291,15 @@
       <c r="A26" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="6"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="30"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="8"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2">

--- a/포켓몬스터 골드 프로젝트 자료/일정표.xlsx
+++ b/포켓몬스터 골드 프로젝트 자료/일정표.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbtjr\Desktop\Pokemon-Gold\포켓몬스터 골드 프로젝트 자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88E06DC-5A66-4D2A-8BE0-2DABD9467292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD22B376-9C5B-4F05-B070-EEED874D2820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{512BACF0-F458-41B6-9394-C0894F31B94C}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{512BACF0-F458-41B6-9394-C0894F31B94C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>개발 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,7 +120,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>맵 데이터 로드</t>
+    <t>편집 &amp; 데이터 저장, 불러오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 이동, 맵 스크롤링</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -213,7 +217,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -330,24 +334,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -420,6 +413,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -428,18 +427,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -762,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{161D8DA8-CF88-403D-8D5D-00FBF232B1A0}">
   <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -773,36 +760,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="24" t="s">
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="24" t="s">
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="26"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="28"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="28"/>
+      <c r="A2" s="25"/>
       <c r="B2" s="5">
         <v>44404</v>
       </c>
@@ -1184,36 +1171,36 @@
       <c r="S19" s="22"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="24" t="s">
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="24" t="s">
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="25"/>
-      <c r="S21" s="26"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="28"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="28"/>
+      <c r="A22" s="25"/>
       <c r="B22" s="5">
         <v>44404</v>
       </c>
@@ -1289,17 +1276,16 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="30"/>
+        <v>21</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="8"/>
+      <c r="A27" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="9"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2">

--- a/포켓몬스터 골드 프로젝트 자료/일정표.xlsx
+++ b/포켓몬스터 골드 프로젝트 자료/일정표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbtjr\Desktop\Pokemon-Gold\포켓몬스터 골드 프로젝트 자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD22B376-9C5B-4F05-B070-EEED874D2820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFDBB603-79A9-4955-B50B-560B3B09BDC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{512BACF0-F458-41B6-9394-C0894F31B94C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{512BACF0-F458-41B6-9394-C0894F31B94C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>개발 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,6 +125,10 @@
   </si>
   <si>
     <t>플레이어 이동, 맵 스크롤링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이더 로드 매니저 추가, 맵 스크롤링 최적화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -747,10 +751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{161D8DA8-CF88-403D-8D5D-00FBF232B1A0}">
-  <dimension ref="A1:S27"/>
+  <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1286,6 +1290,12 @@
         <v>22</v>
       </c>
       <c r="E27" s="9"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="9"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2">

--- a/포켓몬스터 골드 프로젝트 자료/일정표.xlsx
+++ b/포켓몬스터 골드 프로젝트 자료/일정표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbtjr\Desktop\Pokemon-Gold\포켓몬스터 골드 프로젝트 자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFDBB603-79A9-4955-B50B-560B3B09BDC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9477BCB9-442D-4037-B429-CE0BCE9B12C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{512BACF0-F458-41B6-9394-C0894F31B94C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>개발 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,6 +129,14 @@
   </si>
   <si>
     <t>데이더 로드 매니저 추가, 맵 스크롤링 최적화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵 전환 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 애니매이션, 충돌 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -751,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{161D8DA8-CF88-403D-8D5D-00FBF232B1A0}">
-  <dimension ref="A1:S28"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1296,6 +1304,18 @@
         <v>23</v>
       </c>
       <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="9"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2">

--- a/포켓몬스터 골드 프로젝트 자료/일정표.xlsx
+++ b/포켓몬스터 골드 프로젝트 자료/일정표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbtjr\Desktop\Pokemon-Gold\포켓몬스터 골드 프로젝트 자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9477BCB9-442D-4037-B429-CE0BCE9B12C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21610C06-F1D7-4290-BC09-9E57D7572745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{512BACF0-F458-41B6-9394-C0894F31B94C}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{512BACF0-F458-41B6-9394-C0894F31B94C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>개발 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,11 +132,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>맵 전환 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>플레이어 애니매이션, 충돌 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵 전환 추가, 전환 효과 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 UI 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -759,10 +763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{161D8DA8-CF88-403D-8D5D-00FBF232B1A0}">
-  <dimension ref="A1:S30"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1307,15 +1311,21 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H30" s="9"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I31" s="9"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2">

--- a/포켓몬스터 골드 프로젝트 자료/일정표.xlsx
+++ b/포켓몬스터 골드 프로젝트 자료/일정표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbtjr\Desktop\Pokemon-Gold\포켓몬스터 골드 프로젝트 자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21610C06-F1D7-4290-BC09-9E57D7572745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9704D55-A943-4AAC-BE23-58EC2868FC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{512BACF0-F458-41B6-9394-C0894F31B94C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>개발 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,6 +141,10 @@
   </si>
   <si>
     <t>기본 UI 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동적 UI 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -763,10 +767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{161D8DA8-CF88-403D-8D5D-00FBF232B1A0}">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1326,6 +1330,12 @@
         <v>26</v>
       </c>
       <c r="I31" s="9"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I32" s="9"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2">

--- a/포켓몬스터 골드 프로젝트 자료/일정표.xlsx
+++ b/포켓몬스터 골드 프로젝트 자료/일정표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbtjr\Desktop\Pokemon-Gold\포켓몬스터 골드 프로젝트 자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9704D55-A943-4AAC-BE23-58EC2868FC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D705041-F1C0-4CA5-AAC7-946CBF33F1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{512BACF0-F458-41B6-9394-C0894F31B94C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>개발 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,11 +140,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기본 UI 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>동적 UI 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Update, Draw 방식 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 UI, 가방 UI 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -767,10 +771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{161D8DA8-CF88-403D-8D5D-00FBF232B1A0}">
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1327,15 +1331,21 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I31" s="9"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I32" s="9"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I32" s="9"/>
+      <c r="J33" s="9"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2">

--- a/포켓몬스터 골드 프로젝트 자료/일정표.xlsx
+++ b/포켓몬스터 골드 프로젝트 자료/일정표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbtjr\Desktop\Pokemon-Gold\포켓몬스터 골드 프로젝트 자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D705041-F1C0-4CA5-AAC7-946CBF33F1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8BEB60-7E55-4CF2-935D-DAA8DB9B1DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{512BACF0-F458-41B6-9394-C0894F31B94C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{512BACF0-F458-41B6-9394-C0894F31B94C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>개발 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,6 +149,10 @@
   </si>
   <si>
     <t>메인 UI, 가방 UI 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 데이터 추가, 인벤토리 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -771,15 +775,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{161D8DA8-CF88-403D-8D5D-00FBF232B1A0}">
-  <dimension ref="A1:S33"/>
+  <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.375" customWidth="1"/>
+    <col min="1" max="1" width="40.25" customWidth="1"/>
     <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1341,11 +1345,17 @@
       </c>
       <c r="I32" s="9"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>27</v>
       </c>
       <c r="J33" s="9"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K34" s="9"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2">

--- a/포켓몬스터 골드 프로젝트 자료/일정표.xlsx
+++ b/포켓몬스터 골드 프로젝트 자료/일정표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbtjr\Desktop\Pokemon-Gold\포켓몬스터 골드 프로젝트 자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8BEB60-7E55-4CF2-935D-DAA8DB9B1DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2C9A11-65F9-4198-A6BC-38DB78C809D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{512BACF0-F458-41B6-9394-C0894F31B94C}"/>
+    <workbookView xWindow="4200" yWindow="4200" windowWidth="21600" windowHeight="11385" xr2:uid="{512BACF0-F458-41B6-9394-C0894F31B94C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>개발 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,6 +153,10 @@
   </si>
   <si>
     <t>아이템 데이터 추가, 인벤토리 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI 텍스트 딕셔너리, 다이얼로그 효과 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -775,10 +779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{161D8DA8-CF88-403D-8D5D-00FBF232B1A0}">
-  <dimension ref="A1:S34"/>
+  <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1345,17 +1349,23 @@
       </c>
       <c r="I32" s="9"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>27</v>
       </c>
       <c r="J33" s="9"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>29</v>
       </c>
       <c r="K34" s="9"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L35" s="9"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2">

--- a/포켓몬스터 골드 프로젝트 자료/일정표.xlsx
+++ b/포켓몬스터 골드 프로젝트 자료/일정표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbtjr\Desktop\Pokemon-Gold\포켓몬스터 골드 프로젝트 자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2C9A11-65F9-4198-A6BC-38DB78C809D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB3D644-2CF9-435C-A4D9-63370E818915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="4200" windowWidth="21600" windowHeight="11385" xr2:uid="{512BACF0-F458-41B6-9394-C0894F31B94C}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{512BACF0-F458-41B6-9394-C0894F31B94C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -781,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{161D8DA8-CF88-403D-8D5D-00FBF232B1A0}">
   <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/포켓몬스터 골드 프로젝트 자료/일정표.xlsx
+++ b/포켓몬스터 골드 프로젝트 자료/일정표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbtjr\Desktop\Pokemon-Gold\포켓몬스터 골드 프로젝트 자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB3D644-2CF9-435C-A4D9-63370E818915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C478DFDB-6062-42D3-B53A-EB10EAAEFC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{512BACF0-F458-41B6-9394-C0894F31B94C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{512BACF0-F458-41B6-9394-C0894F31B94C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
   <si>
     <t>개발 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,6 +157,30 @@
   </si>
   <si>
     <t>UI 텍스트 딕셔너리, 다이얼로그 효과 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 데이터 구성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포켓몬 계산식 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투 시스템 구성(턴 시스템, 애니메이션)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투 UI 구성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멀티 스레드로 일부 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -181,7 +205,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -248,8 +272,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -366,13 +408,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -459,6 +532,51 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -779,10 +897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{161D8DA8-CF88-403D-8D5D-00FBF232B1A0}">
-  <dimension ref="A1:S35"/>
+  <dimension ref="A1:W44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1149,7 +1267,7 @@
       <c r="O16" s="12"/>
       <c r="S16" s="21"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>8</v>
       </c>
@@ -1157,7 +1275,7 @@
       <c r="Q17" s="14"/>
       <c r="S17" s="21"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>17</v>
       </c>
@@ -1179,7 +1297,7 @@
       <c r="R18" s="15"/>
       <c r="S18" s="21"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
         <v>18</v>
       </c>
@@ -1202,7 +1320,7 @@
       <c r="R19" s="17"/>
       <c r="S19" s="22"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
         <v>0</v>
       </c>
@@ -1229,9 +1347,13 @@
       </c>
       <c r="Q21" s="27"/>
       <c r="R21" s="27"/>
-      <c r="S21" s="28"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S21" s="27"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="27"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="28"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="25"/>
       <c r="B22" s="5">
         <v>44404</v>
@@ -1284,99 +1406,215 @@
       <c r="R22" s="3">
         <v>44420</v>
       </c>
-      <c r="S22" s="1">
+      <c r="S22" s="3">
         <v>44421</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T22" s="3">
+        <v>44422</v>
+      </c>
+      <c r="U22" s="3">
+        <v>44423</v>
+      </c>
+      <c r="V22" s="3">
+        <v>44424</v>
+      </c>
+      <c r="W22" s="1">
+        <v>44425</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="W23" s="41"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="23"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="W24" s="42"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B25" s="6"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="W25" s="42"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="8"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="W26" s="42"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E27" s="9"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="W27" s="42"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>23</v>
       </c>
       <c r="F28" s="9"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="W28" s="42"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G29" s="9"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="W29" s="42"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>25</v>
       </c>
       <c r="H30" s="9"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="W30" s="42"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>28</v>
       </c>
       <c r="I31" s="9"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="W31" s="42"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>26</v>
       </c>
       <c r="I32" s="9"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="W32" s="42"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>27</v>
       </c>
       <c r="J33" s="9"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="W33" s="42"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>29</v>
       </c>
       <c r="K34" s="9"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="W34" s="42"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>30</v>
       </c>
       <c r="L35" s="9"/>
+      <c r="W35" s="42"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A36" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M36" s="31"/>
+      <c r="W36" s="42"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A37" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="M37" s="31"/>
+      <c r="W37" s="42"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A38" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="N38" s="31"/>
+      <c r="W38" s="42"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A39" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O39" s="31"/>
+      <c r="W39" s="42"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A40" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O40" s="32"/>
+      <c r="P40" s="33"/>
+      <c r="Q40" s="33"/>
+      <c r="R40" s="33"/>
+      <c r="S40" s="33"/>
+      <c r="T40" s="36"/>
+      <c r="W40" s="42"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A41" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="N41" s="4"/>
+      <c r="T41" s="37"/>
+      <c r="U41" s="38"/>
+      <c r="W41" s="42"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A42" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="U42" s="13"/>
+      <c r="V42" s="14"/>
+      <c r="W42" s="42"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A43" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="V43" s="39"/>
+      <c r="W43" s="43"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A44" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44" s="40"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="19"/>
+      <c r="P44" s="19"/>
+      <c r="Q44" s="19"/>
+      <c r="R44" s="19"/>
+      <c r="S44" s="19"/>
+      <c r="T44" s="19"/>
+      <c r="U44" s="19"/>
+      <c r="V44" s="19"/>
+      <c r="W44" s="31"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2">
     <sortCondition ref="B2"/>
   </sortState>
   <mergeCells count="8">
+    <mergeCell ref="P21:W21"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:H21"/>
     <mergeCell ref="I21:O21"/>
-    <mergeCell ref="P21:S21"/>
     <mergeCell ref="P1:S1"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="I1:O1"/>
